--- a/Planificación/Matriz de Requisitos Funcionales y CU.xlsx
+++ b/Planificación/Matriz de Requisitos Funcionales y CU.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcelo Twice\Desktop\Plataforma Web Intecil\Planificación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFE8FAFE-CDD9-4873-A2AC-3D8B36A07ED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{708A5304-AFD2-4518-9636-63D22AFCB97C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="58">
   <si>
     <t>Proceso de Negocio</t>
   </si>
@@ -81,18 +81,12 @@
     <t>Impresión Lote Visa</t>
   </si>
   <si>
-    <t>Enviar Documentación asociada (rar, zip, pdf)</t>
-  </si>
-  <si>
     <t>Enviar Documentación asociada (rar)</t>
   </si>
   <si>
     <t>RF-01</t>
   </si>
   <si>
-    <t>CU-01</t>
-  </si>
-  <si>
     <t>RF-02</t>
   </si>
   <si>
@@ -184,6 +178,27 @@
   </si>
   <si>
     <t>RF-12</t>
+  </si>
+  <si>
+    <t>Enviar Documentación asociada a la solicitud (rar, zip, pdf)</t>
+  </si>
+  <si>
+    <t>Enviar N° Lote</t>
+  </si>
+  <si>
+    <t>RF-13</t>
+  </si>
+  <si>
+    <t>Modificar Formulario Lote "Estado Completado"</t>
+  </si>
+  <si>
+    <t>Modificar Formulario Lote "Estado Impresión"</t>
+  </si>
+  <si>
+    <t>Revisión Lote</t>
+  </si>
+  <si>
+    <t>Modificar Estado Formulario Lote "En Revision"</t>
   </si>
 </sst>
 </file>
@@ -289,13 +304,46 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -303,40 +351,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -619,10 +633,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:I32"/>
+  <dimension ref="B2:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -631,70 +645,68 @@
     <col min="3" max="3" width="36.6640625" customWidth="1"/>
     <col min="4" max="4" width="17.44140625" customWidth="1"/>
     <col min="5" max="5" width="15.109375" customWidth="1"/>
-    <col min="6" max="6" width="39.5546875" customWidth="1"/>
+    <col min="6" max="6" width="41.6640625" customWidth="1"/>
     <col min="7" max="7" width="11.44140625" customWidth="1"/>
     <col min="8" max="8" width="20.109375" customWidth="1"/>
     <col min="9" max="9" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B2" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
+      <c r="B2" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10" t="s">
+      <c r="F3" s="13"/>
+      <c r="G3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="10"/>
-      <c r="I3" s="9" t="s">
+      <c r="H3" s="13"/>
+      <c r="I3" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>21</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="2"/>
       <c r="H4" s="1"/>
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B5" s="12"/>
+      <c r="B5" s="11"/>
       <c r="C5" s="2" t="s">
         <v>7</v>
       </c>
@@ -702,17 +714,17 @@
         <v>9</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>25</v>
+        <v>20</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="12"/>
+      <c r="B6" s="11"/>
       <c r="C6" s="2" t="s">
         <v>8</v>
       </c>
@@ -720,53 +732,53 @@
         <v>9</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="12"/>
+      <c r="B7" s="11"/>
       <c r="C7" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B8" s="13"/>
+      <c r="B8" s="12"/>
       <c r="C8" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B9" s="14"/>
+      <c r="B9" s="5"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -776,7 +788,7 @@
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B10" s="14"/>
+      <c r="B10" s="5"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -786,7 +798,7 @@
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="14" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -795,134 +807,134 @@
       <c r="D11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>35</v>
+      <c r="E11" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>33</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B12" s="15"/>
+      <c r="B12" s="14"/>
       <c r="C12" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B13" s="15"/>
+      <c r="B13" s="14"/>
       <c r="C13" s="2" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B14" s="15"/>
+      <c r="B14" s="14"/>
       <c r="C14" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B15" s="14"/>
+      <c r="B15" s="5"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="7"/>
+      <c r="F15" s="3"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="10" t="s">
         <v>14</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F16" s="18" t="s">
-        <v>39</v>
+        <v>36</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B17" s="12"/>
+      <c r="B17" s="11"/>
       <c r="C17" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F17" s="18" t="s">
-        <v>42</v>
+        <v>39</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B18" s="12"/>
+      <c r="B18" s="11"/>
       <c r="C18" s="2" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>57</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B19" s="12"/>
+      <c r="B19" s="11"/>
       <c r="C19" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>49</v>
@@ -932,113 +944,117 @@
       <c r="I19" s="2"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="13"/>
+      <c r="B20" s="11"/>
       <c r="C20" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B21" s="16"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B22" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>52</v>
-      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B23" s="15"/>
+      <c r="B23" s="14" t="s">
+        <v>13</v>
+      </c>
       <c r="C23" s="2" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
+      <c r="E23" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>55</v>
+      </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="15"/>
+      <c r="B24" s="14"/>
       <c r="C24" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B25" s="15"/>
+      <c r="B25" s="14"/>
       <c r="C25" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="14"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
+      <c r="C26" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B27" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="B27" s="5"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
@@ -1046,17 +1062,27 @@
       <c r="I27" s="2"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B28" s="16"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
+      <c r="B28" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B29" s="2"/>
+      <c r="B29" s="7"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
@@ -1095,17 +1121,29 @@
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
     </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="11">
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="F11:F14"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="E23:E26"/>
+    <mergeCell ref="F23:F26"/>
     <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B16:B20"/>
+    <mergeCell ref="B16:B21"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="B11:B14"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="F11:F14"/>
-    <mergeCell ref="B4:B8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Planificación/Matriz de Requisitos Funcionales y CU.xlsx
+++ b/Planificación/Matriz de Requisitos Funcionales y CU.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcelo Twice\Desktop\Plataforma Web Intecil\Planificación\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\intec\OneDrive\Escritorio\intecTroquian\Planificación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{708A5304-AFD2-4518-9636-63D22AFCB97C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B5F1105-7170-4507-9D4C-862432E8D3EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -192,13 +192,13 @@
     <t>Modificar Formulario Lote "Estado Completado"</t>
   </si>
   <si>
-    <t>Modificar Formulario Lote "Estado Impresión"</t>
-  </si>
-  <si>
     <t>Revisión Lote</t>
   </si>
   <si>
     <t>Modificar Estado Formulario Lote "En Revision"</t>
+  </si>
+  <si>
+    <t>Modificar Formulario Lote "Estado Para Impresión"</t>
   </si>
 </sst>
 </file>
@@ -326,32 +326,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -635,8 +635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -645,23 +645,23 @@
     <col min="3" max="3" width="36.6640625" customWidth="1"/>
     <col min="4" max="4" width="17.44140625" customWidth="1"/>
     <col min="5" max="5" width="15.109375" customWidth="1"/>
-    <col min="6" max="6" width="41.6640625" customWidth="1"/>
+    <col min="6" max="6" width="43.44140625" customWidth="1"/>
     <col min="7" max="7" width="11.44140625" customWidth="1"/>
     <col min="8" max="8" width="20.109375" customWidth="1"/>
     <col min="9" max="9" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="4" t="s">
@@ -673,20 +673,20 @@
       <c r="D3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13" t="s">
+      <c r="F3" s="17"/>
+      <c r="G3" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="13"/>
+      <c r="H3" s="17"/>
       <c r="I3" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="13" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -706,7 +706,7 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B5" s="11"/>
+      <c r="B5" s="14"/>
       <c r="C5" s="2" t="s">
         <v>7</v>
       </c>
@@ -724,7 +724,7 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="11"/>
+      <c r="B6" s="14"/>
       <c r="C6" s="2" t="s">
         <v>8</v>
       </c>
@@ -742,7 +742,7 @@
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="11"/>
+      <c r="B7" s="14"/>
       <c r="C7" s="2" t="s">
         <v>30</v>
       </c>
@@ -760,7 +760,7 @@
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B8" s="12"/>
+      <c r="B8" s="15"/>
       <c r="C8" s="2" t="s">
         <v>31</v>
       </c>
@@ -798,7 +798,7 @@
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -807,10 +807,10 @@
       <c r="D11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="F11" s="10" t="s">
         <v>33</v>
       </c>
       <c r="G11" s="2"/>
@@ -818,43 +818,43 @@
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B12" s="14"/>
+      <c r="B12" s="9"/>
       <c r="C12" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B13" s="14"/>
+      <c r="B13" s="9"/>
       <c r="C13" s="2" t="s">
         <v>51</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B14" s="14"/>
+      <c r="B14" s="9"/>
       <c r="C14" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -870,7 +870,7 @@
       <c r="I15" s="2"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="13" t="s">
         <v>14</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -890,7 +890,7 @@
       <c r="I16" s="2"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B17" s="11"/>
+      <c r="B17" s="14"/>
       <c r="C17" s="2" t="s">
         <v>38</v>
       </c>
@@ -908,9 +908,9 @@
       <c r="I17" s="2"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B18" s="11"/>
+      <c r="B18" s="14"/>
       <c r="C18" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>16</v>
@@ -919,14 +919,14 @@
         <v>41</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B19" s="11"/>
+      <c r="B19" s="14"/>
       <c r="C19" s="2" t="s">
         <v>45</v>
       </c>
@@ -944,7 +944,7 @@
       <c r="I19" s="2"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="11"/>
+      <c r="B20" s="14"/>
       <c r="C20" s="2" t="s">
         <v>46</v>
       </c>
@@ -962,7 +962,7 @@
       <c r="I20" s="2"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B21" s="12"/>
+      <c r="B21" s="15"/>
       <c r="C21" s="2" t="s">
         <v>43</v>
       </c>
@@ -990,7 +990,7 @@
       <c r="I22" s="2"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C23" s="2" t="s">
@@ -999,54 +999,54 @@
       <c r="D23" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E23" s="15" t="s">
+      <c r="E23" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="F23" s="15" t="s">
-        <v>55</v>
+      <c r="F23" s="10" t="s">
+        <v>57</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="14"/>
+      <c r="B24" s="9"/>
       <c r="C24" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B25" s="14"/>
+      <c r="B25" s="9"/>
       <c r="C25" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B26" s="14"/>
+      <c r="B26" s="9"/>
       <c r="C26" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
@@ -1133,17 +1133,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B16:B21"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="B11:B14"/>
     <mergeCell ref="B23:B26"/>
     <mergeCell ref="E11:E14"/>
     <mergeCell ref="F11:F14"/>
     <mergeCell ref="B4:B8"/>
     <mergeCell ref="E23:E26"/>
     <mergeCell ref="F23:F26"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B16:B21"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="B11:B14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Planificación/Matriz de Requisitos Funcionales y CU.xlsx
+++ b/Planificación/Matriz de Requisitos Funcionales y CU.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\intec\OneDrive\Escritorio\intecTroquian\Planificación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B5F1105-7170-4507-9D4C-862432E8D3EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FE89EB7-506E-41E5-925D-176BE09629E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="69">
   <si>
     <t>Proceso de Negocio</t>
   </si>
@@ -45,9 +45,6 @@
     <t>Actores</t>
   </si>
   <si>
-    <t>Creacion de Lote VISA</t>
-  </si>
-  <si>
     <t>Asignar N° Lote VISA</t>
   </si>
   <si>
@@ -57,30 +54,18 @@
     <t>Digitador VISA</t>
   </si>
   <si>
-    <t>Solicitud de Revision Lote VISA</t>
-  </si>
-  <si>
     <t>Enviar de N° Lote</t>
   </si>
   <si>
     <t>Enviar Cliente</t>
   </si>
   <si>
-    <t>Solicitud de Impresión Lote VISA</t>
-  </si>
-  <si>
-    <t>Revision Lote VISA</t>
-  </si>
-  <si>
     <t>Enviar Comentarios</t>
   </si>
   <si>
     <t>Digitador INTECIL</t>
   </si>
   <si>
-    <t>Impresión Lote Visa</t>
-  </si>
-  <si>
     <t>Enviar Documentación asociada (rar)</t>
   </si>
   <si>
@@ -168,9 +153,6 @@
     <t>Determinar Estado</t>
   </si>
   <si>
-    <t>Establecer estado del formulario (OK, Corregir)</t>
-  </si>
-  <si>
     <t>Adjuntar Documentacion (Doc.2)</t>
   </si>
   <si>
@@ -199,6 +181,57 @@
   </si>
   <si>
     <t>Modificar Formulario Lote "Estado Para Impresión"</t>
+  </si>
+  <si>
+    <t>Establecer estado de la revision del formulario (OK, Corregir)</t>
+  </si>
+  <si>
+    <t>1.- Creacion de Lote VISA</t>
+  </si>
+  <si>
+    <t>2.- Solicitud de Revision Lote VISA</t>
+  </si>
+  <si>
+    <t>Descargar Documentacion Revisada</t>
+  </si>
+  <si>
+    <t>Visualizar Documentacion Revisada</t>
+  </si>
+  <si>
+    <t>Efectuar Correciones</t>
+  </si>
+  <si>
+    <t>Descargar Revision</t>
+  </si>
+  <si>
+    <t>Visualizar Revision</t>
+  </si>
+  <si>
+    <t>Modificar Estado de la revision "Corregido"</t>
+  </si>
+  <si>
+    <t>3.- Revision Lote VISA</t>
+  </si>
+  <si>
+    <t>4.- Correccion Lote</t>
+  </si>
+  <si>
+    <t>5.- Solicitud de Impresión Lote VISA</t>
+  </si>
+  <si>
+    <t>6.- Impresión Lote Visa</t>
+  </si>
+  <si>
+    <t>RF-14</t>
+  </si>
+  <si>
+    <t>RF-15</t>
+  </si>
+  <si>
+    <t>RF-16</t>
+  </si>
+  <si>
+    <t>Imprimir Lote</t>
   </si>
 </sst>
 </file>
@@ -304,7 +337,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -326,6 +359,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -338,21 +392,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -633,10 +674,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:I33"/>
+  <dimension ref="B2:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -645,23 +686,23 @@
     <col min="3" max="3" width="36.6640625" customWidth="1"/>
     <col min="4" max="4" width="17.44140625" customWidth="1"/>
     <col min="5" max="5" width="15.109375" customWidth="1"/>
-    <col min="6" max="6" width="43.44140625" customWidth="1"/>
+    <col min="6" max="6" width="53.33203125" customWidth="1"/>
     <col min="7" max="7" width="11.44140625" customWidth="1"/>
     <col min="8" max="8" width="20.109375" customWidth="1"/>
     <col min="9" max="9" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B2" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
+      <c r="B2" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="4" t="s">
@@ -673,115 +714,115 @@
       <c r="D3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17" t="s">
+      <c r="F3" s="15"/>
+      <c r="G3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="17"/>
+      <c r="H3" s="15"/>
       <c r="I3" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="13" t="s">
-        <v>6</v>
+      <c r="B4" s="12" t="s">
+        <v>53</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="1"/>
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B5" s="14"/>
+      <c r="B5" s="13"/>
       <c r="C5" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="14"/>
+      <c r="B6" s="13"/>
       <c r="C6" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="14"/>
+      <c r="B7" s="13"/>
       <c r="C7" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B8" s="15"/>
+      <c r="B8" s="14"/>
       <c r="C8" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B9" s="5"/>
+      <c r="B9" s="10"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="E9" s="1"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -798,301 +839,291 @@
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B11" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>33</v>
-      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B12" s="9"/>
+      <c r="B12" s="16" t="s">
+        <v>54</v>
+      </c>
       <c r="C12" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
+        <v>8</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>28</v>
+      </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B13" s="9"/>
+      <c r="B13" s="16"/>
       <c r="C13" s="2" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
+        <v>8</v>
+      </c>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B14" s="9"/>
+      <c r="B14" s="16"/>
       <c r="C14" s="2" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
+        <v>8</v>
+      </c>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B15" s="5"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="3"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B16" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>37</v>
-      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B17" s="14"/>
-      <c r="C17" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>40</v>
-      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="2"/>
+      <c r="E17" s="9"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B18" s="14"/>
-      <c r="C18" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>56</v>
-      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="3"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B19" s="14"/>
+      <c r="B19" s="12" t="s">
+        <v>61</v>
+      </c>
       <c r="C19" s="2" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>49</v>
+        <v>31</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="14"/>
+      <c r="B20" s="13"/>
       <c r="C20" s="2" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>47</v>
+        <v>34</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B21" s="15"/>
+      <c r="B21" s="13"/>
       <c r="C21" s="2" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>48</v>
+        <v>36</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B22" s="7"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B23" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B23" s="13"/>
       <c r="C23" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>57</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="9"/>
+      <c r="B24" s="14"/>
       <c r="C24" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
+      <c r="E24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B25" s="9"/>
-      <c r="C25" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
+      <c r="B25" s="10"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B26" s="9"/>
-      <c r="C26" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
+      <c r="B26" s="10"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B27" s="5"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
+      <c r="B27" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B28" s="6" t="s">
-        <v>17</v>
-      </c>
+      <c r="B28" s="13"/>
       <c r="C28" s="2" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>54</v>
+        <v>47</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B29" s="7"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B30" s="2"/>
+      <c r="B30" s="7"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
@@ -1102,48 +1133,203 @@
       <c r="I30" s="2"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
+      <c r="B31" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="F31" s="17" t="s">
+        <v>51</v>
+      </c>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
     </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B34" s="16"/>
+      <c r="C34" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B35" s="5"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B36" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B37" s="7"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B41" s="20"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B42" s="21"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B43" s="21"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B44" s="21"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B45" s="21"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21"/>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B46" s="21"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="21"/>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B47" s="21"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21"/>
+    </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="E12:E15"/>
+    <mergeCell ref="F12:F15"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="E31:E34"/>
+    <mergeCell ref="F31:F34"/>
+    <mergeCell ref="B27:B29"/>
     <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B16:B21"/>
+    <mergeCell ref="B19:B24"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="G3:H3"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="F11:F14"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="E23:E26"/>
-    <mergeCell ref="F23:F26"/>
+    <mergeCell ref="B12:B15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Planificación/Matriz de Requisitos Funcionales y CU.xlsx
+++ b/Planificación/Matriz de Requisitos Funcionales y CU.xlsx
@@ -5,15 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\intec\OneDrive\Escritorio\intecTroquian\Planificación\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcelo Twice\Desktop\Plataforma Web Intecil\Planificación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FE89EB7-506E-41E5-925D-176BE09629E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02021483-6F28-41C3-ABEE-DA0A9FC0A288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Modulo A" sheetId="2" r:id="rId1"/>
+    <sheet name="Modulo B" sheetId="1" r:id="rId2"/>
+    <sheet name="Modulo C" sheetId="3" r:id="rId3"/>
+    <sheet name="Modulo D" sheetId="4" r:id="rId4"/>
+    <sheet name="Modulo E" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="111">
   <si>
     <t>Proceso de Negocio</t>
   </si>
@@ -78,15 +82,6 @@
     <t>Confeccion Nuevo Lote VISA</t>
   </si>
   <si>
-    <t>Crear Formulario "Nuevo Lote VISA"</t>
-  </si>
-  <si>
-    <t>Ingresar N° de Lote al Formulario</t>
-  </si>
-  <si>
-    <t>Ingresar Cliente al Formulario</t>
-  </si>
-  <si>
     <t>RF-03</t>
   </si>
   <si>
@@ -96,12 +91,6 @@
     <t>RF-05</t>
   </si>
   <si>
-    <t>Adjuntar Documentacion (Doc.1)</t>
-  </si>
-  <si>
-    <t>Ingresar Comentarios (Com.1)</t>
-  </si>
-  <si>
     <t>Agregar Documentacion asociada</t>
   </si>
   <si>
@@ -111,54 +100,24 @@
     <t>RF-06</t>
   </si>
   <si>
-    <t>Enviar Formulario "Nuevo Lote VISA"</t>
-  </si>
-  <si>
     <t>Matriz de Requisitos Funcionales y Casos de Uso</t>
   </si>
   <si>
-    <t>Descargar Documentacion</t>
-  </si>
-  <si>
     <t>RF-07</t>
   </si>
   <si>
-    <t>Descargar Documentacion enviada</t>
-  </si>
-  <si>
-    <t>Visualizar Documentacion</t>
-  </si>
-  <si>
     <t>RF-08</t>
   </si>
   <si>
-    <t>Visualizar vista previa Documentacion enviada</t>
-  </si>
-  <si>
     <t>RF-09</t>
   </si>
   <si>
     <t>RF-10</t>
   </si>
   <si>
-    <t>Enviar Documentación asociada a la revision</t>
-  </si>
-  <si>
     <t>RF-11</t>
   </si>
   <si>
-    <t>Efectuar Comentarios</t>
-  </si>
-  <si>
-    <t>Determinar Estado</t>
-  </si>
-  <si>
-    <t>Adjuntar Documentacion (Doc.2)</t>
-  </si>
-  <si>
-    <t>Ingresar Comentarios (Com. 2)</t>
-  </si>
-  <si>
     <t>RF-12</t>
   </si>
   <si>
@@ -171,12 +130,6 @@
     <t>RF-13</t>
   </si>
   <si>
-    <t>Modificar Formulario Lote "Estado Completado"</t>
-  </si>
-  <si>
-    <t>Revisión Lote</t>
-  </si>
-  <si>
     <t>Modificar Estado Formulario Lote "En Revision"</t>
   </si>
   <si>
@@ -201,12 +154,6 @@
     <t>Efectuar Correciones</t>
   </si>
   <si>
-    <t>Descargar Revision</t>
-  </si>
-  <si>
-    <t>Visualizar Revision</t>
-  </si>
-  <si>
     <t>Modificar Estado de la revision "Corregido"</t>
   </si>
   <si>
@@ -231,7 +178,190 @@
     <t>RF-16</t>
   </si>
   <si>
-    <t>Imprimir Lote</t>
+    <t>Descargar Revision del proceso 3</t>
+  </si>
+  <si>
+    <t>Visualizar Revision del proceso 3</t>
+  </si>
+  <si>
+    <t>Ingresar N° de Lote al nuevo Formulario</t>
+  </si>
+  <si>
+    <t>Ingresar Cliente al nuevo Formulario</t>
+  </si>
+  <si>
+    <t>Adjuntar Documentacion al nuevo formulario (Doc.1)</t>
+  </si>
+  <si>
+    <t>Ingresar Comentarios al nuevo formulario (Com.1)</t>
+  </si>
+  <si>
+    <t>Enviar Formulario "Lote VISA"</t>
+  </si>
+  <si>
+    <t>Crear Formulario "Lote VISA"</t>
+  </si>
+  <si>
+    <t>Descargar Documentacion enviada para revisar</t>
+  </si>
+  <si>
+    <t>Visualizar vista previa Documentacion enviada para revisar</t>
+  </si>
+  <si>
+    <t>Modificar estado lote "Por Revision"</t>
+  </si>
+  <si>
+    <t>A la espera de revisión</t>
+  </si>
+  <si>
+    <t>RF-17</t>
+  </si>
+  <si>
+    <t>RF-18</t>
+  </si>
+  <si>
+    <t>Descargar Documentacion por revisar</t>
+  </si>
+  <si>
+    <t>Visualizar Documentacion por revisar</t>
+  </si>
+  <si>
+    <t>Revisar Lote</t>
+  </si>
+  <si>
+    <t>Efectuar Comentarios en base a la revision</t>
+  </si>
+  <si>
+    <t>Determinar Estado (Ok, Corregir)</t>
+  </si>
+  <si>
+    <t>Ingresar Comentarios de la revision efectuada(Com. 2)</t>
+  </si>
+  <si>
+    <t>Adjuntar revision al formulario (Doc.2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adjuntar Revision </t>
+  </si>
+  <si>
+    <t>Enviar Revision</t>
+  </si>
+  <si>
+    <t>Modificar Formulario Lote "Estado Revisado"</t>
+  </si>
+  <si>
+    <t>RF-19</t>
+  </si>
+  <si>
+    <t>Descargar Lote para impresión</t>
+  </si>
+  <si>
+    <t>Visualizar Lote para impresión</t>
+  </si>
+  <si>
+    <t>RF-20</t>
+  </si>
+  <si>
+    <t>Visualizar lote para impresión</t>
+  </si>
+  <si>
+    <t>El sistema debe permitir que los empleados inicien sesión con un nombre de usuario y contraseña</t>
+  </si>
+  <si>
+    <t>El sistema debe permitir el cierre de sesiones por solicitud del usuario</t>
+  </si>
+  <si>
+    <t>Permitir que los usuarios recuerden sus credenciales para que no necesiten iniciar sesión cada vez que accedan al sistema (opción de "Recordar usuario"</t>
+  </si>
+  <si>
+    <t>Permitir que los administradores creen nuevos usuarios en el sistema</t>
+  </si>
+  <si>
+    <t>Los administradores deben poder asignar roles predefinidos a los usuarios (Digitador VISA, Digitador INTECIL, Administrador)</t>
+  </si>
+  <si>
+    <t>El sistema debe permitir la gestión de permisos específicos para cada rol, determinando qué funciones pueden ser accedidas por cada uno</t>
+  </si>
+  <si>
+    <t>Solo los usuarios con permisos de administración deben tener acceso al modulo D</t>
+  </si>
+  <si>
+    <t>El sistema debe mostrar estadísticas clave, en especifico el número de lotes de trabajo creados en un período de tiempo</t>
+  </si>
+  <si>
+    <t>Las métricas deben ser representadas en gráficos para facilitar su interpretación (barras, líneas, pastel, etc.)</t>
+  </si>
+  <si>
+    <t>Solo los usuarios con permisos específicos deben poder visualizar estas métricas (Usuario Admin)</t>
+  </si>
+  <si>
+    <t>Mostrar los resultados con información relevante como nombre del lote, fecha de creación, responsable, y estado actual.</t>
+  </si>
+  <si>
+    <t>Permitir a los usuarios ordenar los resultados por fecha, estado o responsable.</t>
+  </si>
+  <si>
+    <t>Implementar paginación para manejar grandes volúmenes de resultados de búsqueda.</t>
+  </si>
+  <si>
+    <t>RF-21</t>
+  </si>
+  <si>
+    <t>RF-22</t>
+  </si>
+  <si>
+    <t>RF-23</t>
+  </si>
+  <si>
+    <t>RF-24</t>
+  </si>
+  <si>
+    <t>RF-25</t>
+  </si>
+  <si>
+    <t>RF-26</t>
+  </si>
+  <si>
+    <t>RF-27</t>
+  </si>
+  <si>
+    <t>RF-28</t>
+  </si>
+  <si>
+    <t>RF-29</t>
+  </si>
+  <si>
+    <t>RF-30</t>
+  </si>
+  <si>
+    <t>RF-31</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Los usuarios deben poder buscar lotes de trabajo utilizando múltiples filtros como fecha de creación, responsable, estado del lote</t>
+  </si>
+  <si>
+    <t>RF-32</t>
+  </si>
+  <si>
+    <t>RF-33</t>
+  </si>
+  <si>
+    <t>RF-34</t>
+  </si>
+  <si>
+    <t>RF-35</t>
+  </si>
+  <si>
+    <t>Administrador, Digitador VISA, Digitador INTECIL</t>
+  </si>
+  <si>
+    <t>Administrador</t>
+  </si>
+  <si>
+    <t>Adminstrador</t>
+  </si>
+  <si>
+    <t>El sistema debe mostrar el número de lotes de trabajo revisados por Digitadores INTECIL</t>
   </si>
 </sst>
 </file>
@@ -337,36 +467,60 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -378,22 +532,8 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -673,62 +813,247 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5568CB9B-14DF-45E7-9CF4-4BC19ACD919F}">
+  <dimension ref="B3:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="52.77734375" customWidth="1"/>
+    <col min="6" max="6" width="40.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B3" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B4" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="16"/>
+      <c r="F4" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="1"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B9" s="1"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B14" s="1"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B15" s="1"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B16" s="1"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17" s="1"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B18" s="1"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B19" s="1"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B20" s="1"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B21" s="1"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C10:C13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:I47"/>
+  <dimension ref="B2:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="23.109375" customWidth="1"/>
-    <col min="3" max="3" width="36.6640625" customWidth="1"/>
+    <col min="3" max="3" width="54.33203125" customWidth="1"/>
     <col min="4" max="4" width="17.44140625" customWidth="1"/>
     <col min="5" max="5" width="15.109375" customWidth="1"/>
     <col min="6" max="6" width="53.33203125" customWidth="1"/>
     <col min="7" max="7" width="11.44140625" customWidth="1"/>
     <col min="8" max="8" width="20.109375" customWidth="1"/>
-    <col min="9" max="9" width="17.6640625" customWidth="1"/>
+    <col min="9" max="9" width="34.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B2" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
+      <c r="B2" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15" t="s">
+      <c r="F3" s="16"/>
+      <c r="G3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="15"/>
-      <c r="I3" s="4" t="s">
+      <c r="H3" s="16"/>
+      <c r="I3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="12" t="s">
-        <v>53</v>
+      <c r="B4" s="20" t="s">
+        <v>36</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>16</v>
@@ -737,17 +1062,19 @@
         <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="2"/>
+      <c r="I4" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B5" s="13"/>
+      <c r="B5" s="21"/>
       <c r="C5" s="2" t="s">
         <v>6</v>
       </c>
@@ -755,17 +1082,19 @@
         <v>8</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
+      <c r="I5" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="13"/>
+      <c r="B6" s="21"/>
       <c r="C6" s="2" t="s">
         <v>7</v>
       </c>
@@ -773,357 +1102,465 @@
         <v>8</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
+      <c r="I6" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="13"/>
+      <c r="B7" s="21"/>
       <c r="C7" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
+      <c r="I7" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B8" s="14"/>
+      <c r="B8" s="22"/>
       <c r="C8" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B9" s="10"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="2"/>
+      <c r="I8" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>55</v>
+      </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
+      <c r="I9" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B10" s="5"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
+      <c r="I10" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B11" s="5"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
+      <c r="I11" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B12" s="16" t="s">
-        <v>54</v>
-      </c>
+      <c r="B12" s="21"/>
       <c r="C12" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" s="17" t="s">
-        <v>28</v>
-      </c>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
+      <c r="I12" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B13" s="16"/>
+      <c r="B13" s="22"/>
       <c r="C13" s="2" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
+      <c r="E13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>59</v>
+      </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
+      <c r="I13" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B14" s="16"/>
+      <c r="B14" s="20" t="s">
+        <v>42</v>
+      </c>
       <c r="C14" s="2" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
+        <v>12</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>57</v>
+      </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
+      <c r="I14" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B15" s="16"/>
+      <c r="B15" s="21"/>
       <c r="C15" s="2" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
+        <v>12</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
+      <c r="I15" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B16" s="6"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
+      <c r="I16" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B17" s="6"/>
-      <c r="C17" s="2"/>
-      <c r="E17" s="9"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
+      <c r="I17" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B18" s="5"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="3"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
+      <c r="I18" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B19" s="12" t="s">
-        <v>61</v>
-      </c>
+      <c r="B19" s="21"/>
       <c r="C19" s="2" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>32</v>
+        <v>48</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>69</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
+      <c r="I19" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="13"/>
-      <c r="C20" s="2" t="s">
-        <v>33</v>
+      <c r="B20" s="22"/>
+      <c r="C20" s="7" t="s">
+        <v>71</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>35</v>
+        <v>61</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>72</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
+      <c r="I20" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B21" s="13"/>
+      <c r="B21" s="20" t="s">
+        <v>43</v>
+      </c>
       <c r="C21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F21" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>50</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
+      <c r="I21" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B22" s="13"/>
+      <c r="B22" s="21"/>
       <c r="C22" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>43</v>
+        <v>73</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
+      <c r="I22" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B23" s="13"/>
+      <c r="B23" s="22"/>
       <c r="C23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F23" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
+      <c r="I23" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="14"/>
+      <c r="B24" s="23" t="s">
+        <v>44</v>
+      </c>
       <c r="C24" s="2" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>34</v>
       </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
+      <c r="I24" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B25" s="10"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
+      <c r="I25" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B26" s="10"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
+      <c r="I26" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B27" s="12" t="s">
-        <v>62</v>
-      </c>
+      <c r="B27" s="23"/>
       <c r="C27" s="2" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>58</v>
-      </c>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
+      <c r="I27" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B28" s="13"/>
+      <c r="B28" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="C28" s="2" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>59</v>
+        <v>92</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
+      <c r="I28" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B29" s="14"/>
+      <c r="B29" s="21"/>
       <c r="C29" s="2" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
+      <c r="I29" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B30" s="7"/>
+      <c r="B30" s="22"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
@@ -1132,204 +1569,549 @@
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B31" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E31" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="F31" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B32" s="16"/>
-      <c r="C32" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B33" s="16"/>
-      <c r="C33" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B34" s="16"/>
-      <c r="C34" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B35" s="5"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B36" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B37" s="7"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B41" s="20"/>
-      <c r="C41" s="20"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B42" s="21"/>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21"/>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B43" s="21"/>
-      <c r="C43" s="21"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="21"/>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B44" s="21"/>
-      <c r="C44" s="21"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="21"/>
-      <c r="F44" s="21"/>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B45" s="21"/>
-      <c r="C45" s="21"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="21"/>
-      <c r="F45" s="21"/>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B46" s="21"/>
-      <c r="C46" s="21"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="21"/>
-      <c r="F46" s="21"/>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B47" s="21"/>
-      <c r="C47" s="21"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="21"/>
-    </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="E12:E15"/>
-    <mergeCell ref="F12:F15"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="E31:E34"/>
-    <mergeCell ref="F31:F34"/>
-    <mergeCell ref="B27:B29"/>
+  <mergeCells count="13">
     <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B19:B24"/>
+    <mergeCell ref="B14:B20"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="G3:H3"/>
-    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="E9:E12"/>
+    <mergeCell ref="F9:F12"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="E24:E27"/>
+    <mergeCell ref="F24:F27"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B9:B13"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{419E4DB9-199E-4473-9871-FA8019C3CB76}">
+  <dimension ref="B3:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="12.88671875" customWidth="1"/>
+    <col min="3" max="3" width="50.33203125" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B3" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B4" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="16"/>
+      <c r="F4" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B9" s="1"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B14" s="1"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B15" s="1"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B16" s="1"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17" s="1"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B18" s="1"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B19" s="1"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B20" s="1"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B21" s="1"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53A0C6D3-5FD9-48B8-AC2F-5B500AA822C7}">
+  <dimension ref="B3:F18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="50.88671875" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B3" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B4" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="16"/>
+      <c r="F4" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B9" s="1"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B14" s="1"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B15" s="1"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B16" s="1"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17" s="1"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B18" s="1"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F73E5FFE-3BCB-403B-B7CA-13BCD4A74454}">
+  <dimension ref="B3:F18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="55.21875" customWidth="1"/>
+    <col min="6" max="6" width="48.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B3" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B4" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="16"/>
+      <c r="F4" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B9" s="1"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B14" s="1"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B15" s="1"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B16" s="1"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17" s="1"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B18" s="1"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Planificación/Matriz de Requisitos Funcionales y CU.xlsx
+++ b/Planificación/Matriz de Requisitos Funcionales y CU.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcelo Twice\Desktop\Plataforma Web Intecil\Planificación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02021483-6F28-41C3-ABEE-DA0A9FC0A288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{432D5214-AB69-4A4A-A909-597490427C69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Modulo A" sheetId="2" r:id="rId1"/>
@@ -19,10 +19,21 @@
     <sheet name="Modulo D" sheetId="4" r:id="rId4"/>
     <sheet name="Modulo E" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -208,9 +219,6 @@
     <t>Visualizar vista previa Documentacion enviada para revisar</t>
   </si>
   <si>
-    <t>Modificar estado lote "Por Revision"</t>
-  </si>
-  <si>
     <t>A la espera de revisión</t>
   </si>
   <si>
@@ -362,6 +370,9 @@
   </si>
   <si>
     <t>El sistema debe mostrar el número de lotes de trabajo revisados por Digitadores INTECIL</t>
+  </si>
+  <si>
+    <t>El sistema modifica el lote al siguiente estado "Por Revision"</t>
   </si>
 </sst>
 </file>
@@ -817,7 +828,7 @@
   <dimension ref="B3:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:C7"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -853,12 +864,12 @@
         <v>14</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="1"/>
       <c r="F5" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -866,12 +877,12 @@
         <v>15</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -879,12 +890,12 @@
         <v>17</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
@@ -1001,8 +1012,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:I30"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:F29"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1226,7 +1237,7 @@
     <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="22"/>
       <c r="C13" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>8</v>
@@ -1235,12 +1246,12 @@
         <v>27</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>59</v>
+        <v>110</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.3">
@@ -1248,7 +1259,7 @@
         <v>42</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>12</v>
@@ -1268,7 +1279,7 @@
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="21"/>
       <c r="C15" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>12</v>
@@ -1288,7 +1299,7 @@
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="21"/>
       <c r="C16" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>12</v>
@@ -1308,7 +1319,7 @@
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="21"/>
       <c r="C17" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>12</v>
@@ -1317,7 +1328,7 @@
         <v>46</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -1328,7 +1339,7 @@
     <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="21"/>
       <c r="C18" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>12</v>
@@ -1348,7 +1359,7 @@
     <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="21"/>
       <c r="C19" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>12</v>
@@ -1357,7 +1368,7 @@
         <v>48</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
@@ -1368,16 +1379,16 @@
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="22"/>
       <c r="C20" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
@@ -1396,7 +1407,7 @@
         <v>8</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>49</v>
@@ -1416,7 +1427,7 @@
         <v>8</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>50</v>
@@ -1436,7 +1447,7 @@
         <v>8</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>41</v>
@@ -1458,7 +1469,7 @@
         <v>8</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F24" s="17" t="s">
         <v>34</v>
@@ -1522,16 +1533,16 @@
         <v>45</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
@@ -1542,16 +1553,16 @@
     <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="21"/>
       <c r="C29" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
@@ -1629,54 +1640,54 @@
     </row>
     <row r="5" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="1"/>
       <c r="F5" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
@@ -1819,54 +1830,54 @@
     </row>
     <row r="5" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="1"/>
       <c r="F5" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
@@ -1953,8 +1964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F73E5FFE-3BCB-403B-B7CA-13BCD4A74454}">
   <dimension ref="B3:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1987,54 +1998,54 @@
     </row>
     <row r="5" spans="2:6" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="1"/>
       <c r="F5" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">

--- a/Planificación/Matriz de Requisitos Funcionales y CU.xlsx
+++ b/Planificación/Matriz de Requisitos Funcionales y CU.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcelo Twice\Desktop\Plataforma Web Intecil\Planificación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{432D5214-AB69-4A4A-A909-597490427C69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D43724E-E2F2-42C2-995D-4995DA6376A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Modulo A" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="112">
   <si>
     <t>Proceso de Negocio</t>
   </si>
@@ -165,9 +165,6 @@
     <t>Efectuar Correciones</t>
   </si>
   <si>
-    <t>Modificar Estado de la revision "Corregido"</t>
-  </si>
-  <si>
     <t>3.- Revision Lote VISA</t>
   </si>
   <si>
@@ -189,12 +186,6 @@
     <t>RF-16</t>
   </si>
   <si>
-    <t>Descargar Revision del proceso 3</t>
-  </si>
-  <si>
-    <t>Visualizar Revision del proceso 3</t>
-  </si>
-  <si>
     <t>Ingresar N° de Lote al nuevo Formulario</t>
   </si>
   <si>
@@ -373,6 +364,18 @@
   </si>
   <si>
     <t>El sistema modifica el lote al siguiente estado "Por Revision"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visualizar Revision </t>
+  </si>
+  <si>
+    <t>Descargar Revision</t>
+  </si>
+  <si>
+    <t>Modificar Estado de la revision "Corregido" (Si corresponde)</t>
+  </si>
+  <si>
+    <t>CU-001</t>
   </si>
 </sst>
 </file>
@@ -414,7 +417,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -474,11 +477,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -533,6 +562,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -544,6 +579,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -825,10 +863,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5568CB9B-14DF-45E7-9CF4-4BC19ACD919F}">
-  <dimension ref="B3:F21"/>
+  <dimension ref="B3:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -864,12 +902,14 @@
         <v>14</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="1"/>
+        <v>74</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="E5" s="21"/>
       <c r="F5" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -877,12 +917,14 @@
         <v>15</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="E6" s="21"/>
       <c r="F6" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -890,119 +932,24 @@
         <v>17</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="E7" s="21"/>
       <c r="F7" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="1"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="1"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="1"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="1"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="1"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="1"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="1"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="1"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B20" s="1"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="1"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
+        <v>103</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="D4:E4"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1010,10 +957,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:I30"/>
+  <dimension ref="B2:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1063,7 +1010,7 @@
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="22" t="s">
         <v>36</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -1076,7 +1023,7 @@
         <v>18</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="1"/>
@@ -1085,7 +1032,7 @@
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B5" s="21"/>
+      <c r="B5" s="23"/>
       <c r="C5" s="2" t="s">
         <v>6</v>
       </c>
@@ -1096,7 +1043,7 @@
         <v>19</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -1105,7 +1052,7 @@
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="21"/>
+      <c r="B6" s="23"/>
       <c r="C6" s="2" t="s">
         <v>7</v>
       </c>
@@ -1116,7 +1063,7 @@
         <v>22</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -1125,7 +1072,7 @@
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="21"/>
+      <c r="B7" s="23"/>
       <c r="C7" s="2" t="s">
         <v>20</v>
       </c>
@@ -1136,7 +1083,7 @@
         <v>24</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -1145,7 +1092,7 @@
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B8" s="22"/>
+      <c r="B8" s="24"/>
       <c r="C8" s="2" t="s">
         <v>21</v>
       </c>
@@ -1156,7 +1103,7 @@
         <v>25</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -1165,7 +1112,7 @@
       </c>
     </row>
     <row r="9" spans="2:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="22" t="s">
         <v>37</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -1178,7 +1125,7 @@
         <v>26</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -1187,7 +1134,7 @@
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B10" s="21"/>
+      <c r="B10" s="23"/>
       <c r="C10" s="2" t="s">
         <v>10</v>
       </c>
@@ -1203,7 +1150,7 @@
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B11" s="21"/>
+      <c r="B11" s="23"/>
       <c r="C11" s="2" t="s">
         <v>30</v>
       </c>
@@ -1219,7 +1166,7 @@
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B12" s="21"/>
+      <c r="B12" s="23"/>
       <c r="C12" s="2" t="s">
         <v>11</v>
       </c>
@@ -1235,9 +1182,9 @@
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B13" s="22"/>
+      <c r="B13" s="24"/>
       <c r="C13" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>8</v>
@@ -1246,7 +1193,7 @@
         <v>27</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -1255,11 +1202,11 @@
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B14" s="20" t="s">
-        <v>42</v>
+      <c r="B14" s="22" t="s">
+        <v>41</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>12</v>
@@ -1268,7 +1215,7 @@
         <v>28</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -1277,9 +1224,9 @@
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B15" s="21"/>
+      <c r="B15" s="23"/>
       <c r="C15" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>12</v>
@@ -1288,7 +1235,7 @@
         <v>29</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -1297,9 +1244,9 @@
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B16" s="21"/>
+      <c r="B16" s="23"/>
       <c r="C16" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>12</v>
@@ -1317,18 +1264,18 @@
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B17" s="21"/>
+      <c r="B17" s="23"/>
       <c r="C17" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -1337,15 +1284,15 @@
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B18" s="21"/>
+      <c r="B18" s="23"/>
       <c r="C18" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>35</v>
@@ -1357,18 +1304,18 @@
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B19" s="21"/>
+      <c r="B19" s="23"/>
       <c r="C19" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
@@ -1377,18 +1324,18 @@
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="22"/>
+      <c r="B20" s="24"/>
       <c r="C20" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
@@ -1397,8 +1344,8 @@
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B21" s="20" t="s">
-        <v>43</v>
+      <c r="B21" s="22" t="s">
+        <v>42</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>38</v>
@@ -1407,10 +1354,10 @@
         <v>8</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>49</v>
+        <v>109</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -1419,7 +1366,7 @@
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B22" s="21"/>
+      <c r="B22" s="23"/>
       <c r="C22" s="2" t="s">
         <v>39</v>
       </c>
@@ -1427,10 +1374,10 @@
         <v>8</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>50</v>
+        <v>108</v>
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
@@ -1439,7 +1386,7 @@
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B23" s="22"/>
+      <c r="B23" s="24"/>
       <c r="C23" s="2" t="s">
         <v>40</v>
       </c>
@@ -1447,10 +1394,10 @@
         <v>8</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>41</v>
+        <v>110</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -1459,8 +1406,8 @@
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="23" t="s">
-        <v>44</v>
+      <c r="B24" s="25" t="s">
+        <v>43</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>31</v>
@@ -1469,7 +1416,7 @@
         <v>8</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F24" s="17" t="s">
         <v>34</v>
@@ -1481,7 +1428,7 @@
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B25" s="23"/>
+      <c r="B25" s="25"/>
       <c r="C25" s="2" t="s">
         <v>10</v>
       </c>
@@ -1497,7 +1444,7 @@
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B26" s="23"/>
+      <c r="B26" s="25"/>
       <c r="C26" s="2" t="s">
         <v>11</v>
       </c>
@@ -1513,7 +1460,7 @@
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B27" s="23"/>
+      <c r="B27" s="25"/>
       <c r="C27" s="2" t="s">
         <v>13</v>
       </c>
@@ -1529,20 +1476,20 @@
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B28" s="20" t="s">
-        <v>45</v>
+      <c r="B28" s="25" t="s">
+        <v>44</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
@@ -1551,34 +1498,24 @@
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B29" s="21"/>
+      <c r="B29" s="25"/>
       <c r="C29" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B30" s="22"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -1586,7 +1523,7 @@
     <mergeCell ref="B14:B20"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="G3:H3"/>
-    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="B28:B29"/>
     <mergeCell ref="B24:B27"/>
     <mergeCell ref="E9:E12"/>
     <mergeCell ref="F9:F12"/>
@@ -1606,7 +1543,7 @@
   <dimension ref="B3:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:C8"/>
+      <selection activeCell="C5" sqref="C5:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1640,54 +1577,54 @@
     </row>
     <row r="5" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="D5" s="2"/>
+        <v>90</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="2" t="s">
-        <v>107</v>
+      <c r="F5" s="1" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2" t="s">
-        <v>107</v>
+        <v>91</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2" t="s">
-        <v>107</v>
+        <v>79</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2" t="s">
-        <v>107</v>
+        <v>80</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
@@ -1804,6 +1741,7 @@
   <cols>
     <col min="3" max="3" width="50.88671875" customWidth="1"/>
     <col min="5" max="5" width="11.5546875" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.3">
@@ -1830,54 +1768,54 @@
     </row>
     <row r="5" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="1"/>
       <c r="F5" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
@@ -1998,54 +1936,54 @@
     </row>
     <row r="5" spans="2:6" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="1"/>
       <c r="F5" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">

--- a/Planificación/Matriz de Requisitos Funcionales y CU.xlsx
+++ b/Planificación/Matriz de Requisitos Funcionales y CU.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcelo Twice\Desktop\Plataforma Web Intecil\Planificación\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\intec\OneDrive\Escritorio\intecTroquian\Planificación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D43724E-E2F2-42C2-995D-4995DA6376A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{564EE89F-35F2-4B57-996E-D9A64F3116A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8544" yWindow="2160" windowWidth="17280" windowHeight="8880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Modulo A" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="120">
   <si>
     <t>Proceso de Negocio</t>
   </si>
@@ -312,9 +312,6 @@
     <t>RF-23</t>
   </si>
   <si>
-    <t>RF-24</t>
-  </si>
-  <si>
     <t>RF-25</t>
   </si>
   <si>
@@ -372,10 +369,37 @@
     <t>Descargar Revision</t>
   </si>
   <si>
-    <t>Modificar Estado de la revision "Corregido" (Si corresponde)</t>
-  </si>
-  <si>
     <t>CU-001</t>
+  </si>
+  <si>
+    <t>CU-002</t>
+  </si>
+  <si>
+    <t>CU-003</t>
+  </si>
+  <si>
+    <t>Modificar Estado de la revision "Corregido"</t>
+  </si>
+  <si>
+    <t>CU-004</t>
+  </si>
+  <si>
+    <t>CU-005</t>
+  </si>
+  <si>
+    <t>CU-006</t>
+  </si>
+  <si>
+    <t>Imprimir Lote</t>
+  </si>
+  <si>
+    <t>El sistema modifica el lote al siguiente estado "En impresion"</t>
+  </si>
+  <si>
+    <t>Rf-24</t>
+  </si>
+  <si>
+    <t>RF-36</t>
   </si>
 </sst>
 </file>
@@ -417,7 +441,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -503,11 +527,73 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -547,12 +633,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -562,26 +687,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -865,8 +975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5568CB9B-14DF-45E7-9CF4-4BC19ACD919F}">
   <dimension ref="B3:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -876,23 +986,23 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16" t="s">
+      <c r="C4" s="19"/>
+      <c r="D4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="16"/>
+      <c r="E4" s="19"/>
       <c r="F4" s="3" t="s">
         <v>5</v>
       </c>
@@ -904,12 +1014,12 @@
       <c r="C5" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="D5" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="E5" s="21"/>
+      <c r="D5" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="E5" s="17"/>
       <c r="F5" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -919,12 +1029,12 @@
       <c r="C6" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="D6" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="E6" s="21"/>
+      <c r="D6" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="E6" s="17"/>
       <c r="F6" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -934,22 +1044,22 @@
       <c r="C7" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="D7" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="E7" s="21"/>
+      <c r="D7" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="E7" s="17"/>
       <c r="F7" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="D7:E7"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -957,10 +1067,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:I29"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B2:I30"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28:E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -976,16 +1089,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
@@ -997,20 +1110,20 @@
       <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16" t="s">
+      <c r="F3" s="19"/>
+      <c r="G3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="16"/>
+      <c r="H3" s="19"/>
       <c r="I3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="26" t="s">
         <v>36</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -1025,14 +1138,16 @@
       <c r="F4" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="1"/>
+      <c r="G4" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="H4" s="21"/>
       <c r="I4" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B5" s="23"/>
+      <c r="B5" s="27"/>
       <c r="C5" s="2" t="s">
         <v>6</v>
       </c>
@@ -1045,14 +1160,14 @@
       <c r="F5" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="23"/>
       <c r="I5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="23"/>
+      <c r="B6" s="27"/>
       <c r="C6" s="2" t="s">
         <v>7</v>
       </c>
@@ -1065,14 +1180,14 @@
       <c r="F6" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="23"/>
       <c r="I6" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="23"/>
+      <c r="B7" s="27"/>
       <c r="C7" s="2" t="s">
         <v>20</v>
       </c>
@@ -1085,14 +1200,14 @@
       <c r="F7" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="23"/>
       <c r="I7" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B8" s="24"/>
+      <c r="B8" s="28"/>
       <c r="C8" s="2" t="s">
         <v>21</v>
       </c>
@@ -1105,14 +1220,14 @@
       <c r="F8" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="23"/>
       <c r="I8" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="26" t="s">
         <v>37</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -1121,68 +1236,68 @@
       <c r="D9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="F9" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="23"/>
       <c r="I9" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B10" s="23"/>
+      <c r="B10" s="27"/>
       <c r="C10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="23"/>
       <c r="I10" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B11" s="23"/>
+      <c r="B11" s="27"/>
       <c r="C11" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="23"/>
       <c r="I11" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B12" s="23"/>
+      <c r="B12" s="27"/>
       <c r="C12" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="23"/>
       <c r="I12" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B13" s="24"/>
+      <c r="B13" s="28"/>
       <c r="C13" s="2" t="s">
         <v>56</v>
       </c>
@@ -1193,16 +1308,16 @@
         <v>27</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
+        <v>106</v>
+      </c>
+      <c r="G13" s="24"/>
+      <c r="H13" s="25"/>
       <c r="I13" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="26" t="s">
         <v>41</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -1217,14 +1332,16 @@
       <c r="F14" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
+      <c r="G14" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="H14" s="21"/>
       <c r="I14" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B15" s="23"/>
+      <c r="B15" s="27"/>
       <c r="C15" s="2" t="s">
         <v>60</v>
       </c>
@@ -1237,14 +1354,14 @@
       <c r="F15" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="23"/>
       <c r="I15" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B16" s="23"/>
+      <c r="B16" s="27"/>
       <c r="C16" s="2" t="s">
         <v>61</v>
       </c>
@@ -1257,14 +1374,14 @@
       <c r="F16" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="23"/>
       <c r="I16" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B17" s="23"/>
+      <c r="B17" s="27"/>
       <c r="C17" s="2" t="s">
         <v>62</v>
       </c>
@@ -1277,14 +1394,14 @@
       <c r="F17" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="23"/>
       <c r="I17" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B18" s="23"/>
+      <c r="B18" s="27"/>
       <c r="C18" s="2" t="s">
         <v>63</v>
       </c>
@@ -1297,14 +1414,14 @@
       <c r="F18" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="23"/>
       <c r="I18" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B19" s="23"/>
+      <c r="B19" s="27"/>
       <c r="C19" s="2" t="s">
         <v>66</v>
       </c>
@@ -1317,14 +1434,14 @@
       <c r="F19" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="23"/>
       <c r="I19" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="24"/>
+      <c r="B20" s="28"/>
       <c r="C20" s="7" t="s">
         <v>67</v>
       </c>
@@ -1337,14 +1454,14 @@
       <c r="F20" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="25"/>
       <c r="I20" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="26" t="s">
         <v>42</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -1357,16 +1474,18 @@
         <v>58</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
+        <v>108</v>
+      </c>
+      <c r="G21" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="H21" s="21"/>
       <c r="I21" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B22" s="23"/>
+      <c r="B22" s="27"/>
       <c r="C22" s="2" t="s">
         <v>39</v>
       </c>
@@ -1377,16 +1496,16 @@
         <v>69</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
+        <v>107</v>
+      </c>
+      <c r="G22" s="22"/>
+      <c r="H22" s="23"/>
       <c r="I22" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B23" s="24"/>
+      <c r="B23" s="28"/>
       <c r="C23" s="2" t="s">
         <v>40</v>
       </c>
@@ -1397,16 +1516,16 @@
         <v>72</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="G23" s="24"/>
+      <c r="H23" s="25"/>
       <c r="I23" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="25" t="s">
+      <c r="B24" s="29" t="s">
         <v>43</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -1415,68 +1534,70 @@
       <c r="D24" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E24" s="17" t="s">
+      <c r="E24" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="F24" s="17" t="s">
+      <c r="F24" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
+      <c r="G24" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="H24" s="21"/>
       <c r="I24" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B25" s="25"/>
+      <c r="B25" s="29"/>
       <c r="C25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="23"/>
       <c r="I25" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B26" s="25"/>
+      <c r="B26" s="29"/>
       <c r="C26" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="23"/>
       <c r="I26" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B27" s="25"/>
+      <c r="B27" s="29"/>
       <c r="C27" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="25"/>
       <c r="I27" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B28" s="25" t="s">
+      <c r="B28" s="26" t="s">
         <v>44</v>
       </c>
       <c r="C28" s="2" t="s">
@@ -1491,14 +1612,16 @@
       <c r="F28" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
+      <c r="G28" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="H28" s="21"/>
       <c r="I28" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B29" s="25"/>
+      <c r="B29" s="27"/>
       <c r="C29" s="2" t="s">
         <v>71</v>
       </c>
@@ -1511,19 +1634,38 @@
       <c r="F29" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="23"/>
       <c r="I29" s="2" t="s">
         <v>12</v>
       </c>
     </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B30" s="27"/>
+      <c r="C30" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F30" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="G30" s="22"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="18">
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="B14:B20"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="G3:H3"/>
-    <mergeCell ref="B28:B29"/>
     <mergeCell ref="B24:B27"/>
     <mergeCell ref="E9:E12"/>
     <mergeCell ref="F9:F12"/>
@@ -1532,9 +1674,16 @@
     <mergeCell ref="F24:F27"/>
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="B9:B13"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="G28:H30"/>
+    <mergeCell ref="G4:H13"/>
+    <mergeCell ref="G14:H20"/>
+    <mergeCell ref="G21:H23"/>
+    <mergeCell ref="G24:H27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="51" orientation="landscape" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1542,8 +1691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{419E4DB9-199E-4473-9871-FA8019C3CB76}">
   <dimension ref="B3:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:F8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1554,23 +1703,23 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16" t="s">
+      <c r="C4" s="19"/>
+      <c r="D4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="16"/>
+      <c r="E4" s="19"/>
       <c r="F4" s="3" t="s">
         <v>5</v>
       </c>
@@ -1579,26 +1728,26 @@
       <c r="B5" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="15" t="s">
         <v>77</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="15" t="s">
         <v>78</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -1611,7 +1760,7 @@
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -1624,7 +1773,7 @@
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
@@ -1635,36 +1784,36 @@
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B14" s="1"/>
-      <c r="C14" s="5"/>
+      <c r="C14" s="4"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -1734,7 +1883,7 @@
   <dimension ref="B3:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:C8"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1745,23 +1894,23 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16" t="s">
+      <c r="C4" s="19"/>
+      <c r="D4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="16"/>
+      <c r="E4" s="19"/>
       <c r="F4" s="3" t="s">
         <v>5</v>
       </c>
@@ -1776,7 +1925,7 @@
       <c r="D5" s="2"/>
       <c r="E5" s="1"/>
       <c r="F5" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -1784,12 +1933,12 @@
         <v>95</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -1802,12 +1951,12 @@
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>83</v>
@@ -1815,7 +1964,7 @@
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
@@ -1894,6 +2043,7 @@
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="D4:E4"/>
   </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1903,7 +2053,7 @@
   <dimension ref="B3:F18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1913,23 +2063,23 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16" t="s">
+      <c r="C4" s="19"/>
+      <c r="D4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="16"/>
+      <c r="E4" s="19"/>
       <c r="F4" s="3" t="s">
         <v>5</v>
       </c>
@@ -1939,12 +2089,12 @@
         <v>99</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="1"/>
       <c r="F5" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -1957,7 +2107,7 @@
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1970,12 +2120,12 @@
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>86</v>
@@ -1983,7 +2133,7 @@
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">

--- a/Planificación/Matriz de Requisitos Funcionales y CU.xlsx
+++ b/Planificación/Matriz de Requisitos Funcionales y CU.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\intec\OneDrive\Escritorio\intecTroquian\Planificación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{564EE89F-35F2-4B57-996E-D9A64F3116A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9730580B-DEF8-4825-81A0-0A142CC78F17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8544" yWindow="2160" windowWidth="17280" windowHeight="8880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Modulo A" sheetId="2" r:id="rId1"/>
@@ -19,6 +19,9 @@
     <sheet name="Modulo D" sheetId="4" r:id="rId4"/>
     <sheet name="Modulo E" sheetId="6" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Modulo B'!$A$1:$I$33</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -40,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="116">
   <si>
     <t>Proceso de Negocio</t>
   </si>
@@ -66,9 +69,6 @@
     <t>Asignar Cliente (Abastible, Gasco, etc)</t>
   </si>
   <si>
-    <t>Digitador VISA</t>
-  </si>
-  <si>
     <t>Enviar de N° Lote</t>
   </si>
   <si>
@@ -78,9 +78,6 @@
     <t>Enviar Comentarios</t>
   </si>
   <si>
-    <t>Digitador INTECIL</t>
-  </si>
-  <si>
     <t>Enviar Documentación asociada (rar)</t>
   </si>
   <si>
@@ -288,15 +285,6 @@
     <t>El sistema debe mostrar estadísticas clave, en especifico el número de lotes de trabajo creados en un período de tiempo</t>
   </si>
   <si>
-    <t>Las métricas deben ser representadas en gráficos para facilitar su interpretación (barras, líneas, pastel, etc.)</t>
-  </si>
-  <si>
-    <t>Solo los usuarios con permisos específicos deben poder visualizar estas métricas (Usuario Admin)</t>
-  </si>
-  <si>
-    <t>Mostrar los resultados con información relevante como nombre del lote, fecha de creación, responsable, y estado actual.</t>
-  </si>
-  <si>
     <t>Permitir a los usuarios ordenar los resultados por fecha, estado o responsable.</t>
   </si>
   <si>
@@ -339,15 +327,6 @@
     <t>RF-32</t>
   </si>
   <si>
-    <t>RF-33</t>
-  </si>
-  <si>
-    <t>RF-34</t>
-  </si>
-  <si>
-    <t>RF-35</t>
-  </si>
-  <si>
     <t>Administrador, Digitador VISA, Digitador INTECIL</t>
   </si>
   <si>
@@ -357,9 +336,6 @@
     <t>Adminstrador</t>
   </si>
   <si>
-    <t>El sistema debe mostrar el número de lotes de trabajo revisados por Digitadores INTECIL</t>
-  </si>
-  <si>
     <t>El sistema modifica el lote al siguiente estado "Por Revision"</t>
   </si>
   <si>
@@ -399,7 +375,22 @@
     <t>Rf-24</t>
   </si>
   <si>
-    <t>RF-36</t>
+    <t>CU-007</t>
+  </si>
+  <si>
+    <t>CU-008</t>
+  </si>
+  <si>
+    <t>CU-009</t>
+  </si>
+  <si>
+    <t>Digitador Oficina VISA</t>
+  </si>
+  <si>
+    <t>Digitador Oficina INTECIL</t>
+  </si>
+  <si>
+    <t>CU-010</t>
   </si>
 </sst>
 </file>
@@ -593,7 +584,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -618,24 +609,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -648,6 +630,30 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -666,32 +672,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -986,70 +971,70 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B3" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
+      <c r="B3" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19" t="s">
+      <c r="C4" s="16"/>
+      <c r="D4" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="19"/>
+      <c r="E4" s="16"/>
       <c r="F4" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="E5" s="17"/>
+        <v>72</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="E5" s="14"/>
       <c r="F5" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="E6" s="17"/>
+        <v>73</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="E6" s="14"/>
       <c r="F6" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="E7" s="17"/>
+        <v>74</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="E7" s="14"/>
       <c r="F7" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1067,38 +1052,35 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
   <dimension ref="B2:I30"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28:E30"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="23.109375" customWidth="1"/>
     <col min="3" max="3" width="54.33203125" customWidth="1"/>
-    <col min="4" max="4" width="17.44140625" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.109375" customWidth="1"/>
     <col min="6" max="6" width="53.33203125" customWidth="1"/>
     <col min="7" max="7" width="11.44140625" customWidth="1"/>
     <col min="8" max="8" width="20.109375" customWidth="1"/>
-    <col min="9" max="9" width="34.77734375" customWidth="1"/>
+    <col min="9" max="9" width="22.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B2" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
+      <c r="B2" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
@@ -1110,558 +1092,564 @@
       <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19" t="s">
+      <c r="F3" s="16"/>
+      <c r="G3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="19"/>
+      <c r="H3" s="16"/>
       <c r="I3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="26" t="s">
-        <v>36</v>
+      <c r="B4" s="17" t="s">
+        <v>34</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="F4" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="G4" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="H4" s="21"/>
+        <v>51</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="H4" s="26"/>
       <c r="I4" s="2" t="s">
-        <v>8</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B5" s="27"/>
+      <c r="B5" s="18"/>
       <c r="C5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>8</v>
+        <v>113</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="G5" s="22"/>
-      <c r="H5" s="23"/>
+        <v>46</v>
+      </c>
+      <c r="G5" s="27"/>
+      <c r="H5" s="28"/>
       <c r="I5" s="2" t="s">
-        <v>8</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="27"/>
+      <c r="B6" s="18"/>
       <c r="C6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="27"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B7" s="18"/>
+      <c r="C7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="27"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B8" s="19"/>
+      <c r="C8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="27"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="G6" s="22"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="27"/>
-      <c r="C7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="D9" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E9" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F9" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="G7" s="22"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B8" s="28"/>
-      <c r="C8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="1" t="s">
+      <c r="G9" s="27"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B10" s="18"/>
+      <c r="C10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B11" s="18"/>
+      <c r="C11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B12" s="18"/>
+      <c r="C12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B13" s="19"/>
+      <c r="C13" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="G8" s="22"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="26" t="s">
+      <c r="F13" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="G13" s="29"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B14" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="H14" s="26"/>
+      <c r="I14" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B15" s="18"/>
+      <c r="C15" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" s="27"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B16" s="18"/>
+      <c r="C16" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" s="27"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B17" s="18"/>
+      <c r="C17" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G17" s="27"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B18" s="18"/>
+      <c r="C18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" s="27"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B19" s="18"/>
+      <c r="C19" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G19" s="27"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B20" s="19"/>
+      <c r="C20" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G20" s="29"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B21" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="G21" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="H21" s="26"/>
+      <c r="I21" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B22" s="18"/>
+      <c r="C22" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D22" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G22" s="27"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B23" s="19"/>
+      <c r="C23" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="G23" s="29"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B24" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="F24" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="G24" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="H24" s="26"/>
+      <c r="I24" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B25" s="20"/>
+      <c r="C25" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="G9" s="22"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B10" s="27"/>
-      <c r="C10" s="2" t="s">
+      <c r="D25" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B26" s="20"/>
+      <c r="C26" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B11" s="27"/>
-      <c r="C11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B12" s="27"/>
-      <c r="C12" s="2" t="s">
+      <c r="D26" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B27" s="20"/>
+      <c r="C27" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B13" s="28"/>
-      <c r="C13" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="5" t="s">
+      <c r="D27" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B28" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G28" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="G13" s="24"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B14" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G14" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="H14" s="21"/>
-      <c r="I14" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B15" s="27"/>
-      <c r="C15" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="G15" s="22"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B16" s="27"/>
-      <c r="C16" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G16" s="22"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B17" s="27"/>
-      <c r="C17" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="G17" s="22"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B18" s="27"/>
-      <c r="C18" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G18" s="22"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B19" s="27"/>
-      <c r="C19" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="G19" s="22"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="28"/>
-      <c r="C20" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G20" s="24"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B21" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F21" s="4" t="s">
+      <c r="H28" s="24"/>
+      <c r="I28" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B29" s="20"/>
+      <c r="C29" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B30" s="20"/>
+      <c r="C30" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F30" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="G21" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="H21" s="21"/>
-      <c r="I21" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B22" s="27"/>
-      <c r="C22" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="G22" s="22"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B23" s="28"/>
-      <c r="C23" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="G23" s="24"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="F24" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="G24" s="20" t="s">
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="H24" s="21"/>
-      <c r="I24" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B25" s="29"/>
-      <c r="C25" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B26" s="29"/>
-      <c r="C26" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B27" s="29"/>
-      <c r="C27" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B28" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="G28" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="H28" s="21"/>
-      <c r="I28" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B29" s="27"/>
-      <c r="C29" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G29" s="22"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B30" s="27"/>
-      <c r="C30" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F30" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="G30" s="22"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="G28:H30"/>
+    <mergeCell ref="G4:H13"/>
+    <mergeCell ref="G14:H20"/>
+    <mergeCell ref="G21:H23"/>
+    <mergeCell ref="G24:H27"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="B14:B20"/>
     <mergeCell ref="E3:F3"/>
@@ -1674,16 +1662,11 @@
     <mergeCell ref="F24:F27"/>
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="B9:B13"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="G28:H30"/>
-    <mergeCell ref="G4:H13"/>
-    <mergeCell ref="G14:H20"/>
-    <mergeCell ref="G21:H23"/>
-    <mergeCell ref="G24:H27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="51" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="5" scale="67" orientation="landscape" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1691,8 +1674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{419E4DB9-199E-4473-9871-FA8019C3CB76}">
   <dimension ref="B3:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1703,77 +1686,85 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B3" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
+      <c r="B3" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19" t="s">
+      <c r="C4" s="16"/>
+      <c r="D4" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="19"/>
+      <c r="E4" s="16"/>
       <c r="F4" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+        <v>85</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="E5" s="32"/>
       <c r="F5" s="1" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+        <v>86</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="E6" s="32"/>
       <c r="F6" s="1" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+        <v>77</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="E7" s="32"/>
       <c r="F7" s="1" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+        <v>78</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="E8" s="32"/>
       <c r="F8" s="1" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
@@ -1784,29 +1775,29 @@
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="34"/>
-      <c r="C10" s="34"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -1868,10 +1859,14 @@
       <c r="F21" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="7">
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D7:E7"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1880,10 +1875,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53A0C6D3-5FD9-48B8-AC2F-5B500AA822C7}">
-  <dimension ref="B3:F18"/>
+  <dimension ref="B3:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1894,148 +1889,39 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B3" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
+      <c r="B3" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19" t="s">
+      <c r="C4" s="16"/>
+      <c r="D4" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="19"/>
+      <c r="E4" s="16"/>
       <c r="F4" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>81</v>
+        <v>89</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>79</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="1"/>
       <c r="F5" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B6" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B7" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B8" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="1"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="1"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="1"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="1"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="1"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="1"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2050,10 +1936,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F73E5FFE-3BCB-403B-B7CA-13BCD4A74454}">
-  <dimension ref="B3:F18"/>
+  <dimension ref="B3:F7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2063,148 +1949,65 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B3" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
+      <c r="B3" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19" t="s">
+      <c r="C4" s="16"/>
+      <c r="D4" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="19"/>
+      <c r="E4" s="16"/>
       <c r="F4" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>97</v>
+        <v>90</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>92</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="1"/>
       <c r="F5" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>84</v>
+        <v>91</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>80</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="1"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="1"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="1"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="1"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="1"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="1"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
+        <v>94</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Planificación/Matriz de Requisitos Funcionales y CU.xlsx
+++ b/Planificación/Matriz de Requisitos Funcionales y CU.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\intec\OneDrive\Escritorio\intecTroquian\Planificación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9730580B-DEF8-4825-81A0-0A142CC78F17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0096BB33-C82A-4269-AFFF-38ACC917BD3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Modulo A" sheetId="2" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="114">
   <si>
     <t>Proceso de Negocio</t>
   </si>
@@ -285,12 +285,6 @@
     <t>El sistema debe mostrar estadísticas clave, en especifico el número de lotes de trabajo creados en un período de tiempo</t>
   </si>
   <si>
-    <t>Permitir a los usuarios ordenar los resultados por fecha, estado o responsable.</t>
-  </si>
-  <si>
-    <t>Implementar paginación para manejar grandes volúmenes de resultados de búsqueda.</t>
-  </si>
-  <si>
     <t>RF-21</t>
   </si>
   <si>
@@ -318,15 +312,9 @@
     <t>RF-30</t>
   </si>
   <si>
-    <t>RF-31</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Los usuarios deben poder buscar lotes de trabajo utilizando múltiples filtros como fecha de creación, responsable, estado del lote</t>
   </si>
   <si>
-    <t>RF-32</t>
-  </si>
-  <si>
     <t>Administrador, Digitador VISA, Digitador INTECIL</t>
   </si>
   <si>
@@ -391,6 +379,12 @@
   </si>
   <si>
     <t>CU-010</t>
+  </si>
+  <si>
+    <t>CU-011</t>
+  </si>
+  <si>
+    <t>CU-012</t>
   </si>
 </sst>
 </file>
@@ -630,6 +624,30 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -639,9 +657,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -649,27 +664,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1000,11 +994,11 @@
         <v>72</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E5" s="14"/>
       <c r="F5" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -1015,11 +1009,11 @@
         <v>73</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E6" s="14"/>
       <c r="F6" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -1030,11 +1024,11 @@
         <v>74</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E7" s="14"/>
       <c r="F7" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1105,14 +1099,14 @@
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="25" t="s">
         <v>34</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>16</v>
@@ -1120,21 +1114,21 @@
       <c r="F4" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="G4" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="H4" s="26"/>
+      <c r="G4" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="H4" s="20"/>
       <c r="I4" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B5" s="18"/>
+      <c r="B5" s="26"/>
       <c r="C5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>17</v>
@@ -1142,19 +1136,19 @@
       <c r="F5" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G5" s="27"/>
-      <c r="H5" s="28"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="22"/>
       <c r="I5" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="18"/>
+      <c r="B6" s="26"/>
       <c r="C6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>20</v>
@@ -1162,19 +1156,19 @@
       <c r="F6" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="G6" s="27"/>
-      <c r="H6" s="28"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="22"/>
       <c r="I6" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="18"/>
+      <c r="B7" s="26"/>
       <c r="C7" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>22</v>
@@ -1182,19 +1176,19 @@
       <c r="F7" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="G7" s="27"/>
-      <c r="H7" s="28"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="22"/>
       <c r="I7" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B8" s="19"/>
+      <c r="B8" s="27"/>
       <c r="C8" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>23</v>
@@ -1202,111 +1196,111 @@
       <c r="F8" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G8" s="27"/>
-      <c r="H8" s="28"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="22"/>
       <c r="I8" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="25" t="s">
         <v>35</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E9" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="E9" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="21" t="s">
+      <c r="F9" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="G9" s="27"/>
-      <c r="H9" s="28"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="22"/>
       <c r="I9" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B10" s="18"/>
+      <c r="B10" s="26"/>
       <c r="C10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="28"/>
+        <v>109</v>
+      </c>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="22"/>
       <c r="I10" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B11" s="18"/>
+      <c r="B11" s="26"/>
       <c r="C11" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="28"/>
+        <v>109</v>
+      </c>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="22"/>
       <c r="I11" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B12" s="18"/>
+      <c r="B12" s="26"/>
       <c r="C12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="28"/>
+        <v>109</v>
+      </c>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="22"/>
       <c r="I12" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B13" s="19"/>
+      <c r="B13" s="27"/>
       <c r="C13" s="2" t="s">
         <v>54</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="G13" s="29"/>
-      <c r="H13" s="30"/>
+        <v>93</v>
+      </c>
+      <c r="G13" s="23"/>
+      <c r="H13" s="24"/>
       <c r="I13" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="25" t="s">
         <v>39</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>57</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>26</v>
@@ -1314,21 +1308,21 @@
       <c r="F14" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="G14" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="H14" s="26"/>
+      <c r="G14" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="H14" s="20"/>
       <c r="I14" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B15" s="18"/>
+      <c r="B15" s="26"/>
       <c r="C15" s="2" t="s">
         <v>58</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>27</v>
@@ -1336,19 +1330,19 @@
       <c r="F15" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="G15" s="27"/>
-      <c r="H15" s="28"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="22"/>
       <c r="I15" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B16" s="18"/>
+      <c r="B16" s="26"/>
       <c r="C16" s="2" t="s">
         <v>59</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>30</v>
@@ -1356,19 +1350,19 @@
       <c r="F16" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G16" s="27"/>
-      <c r="H16" s="28"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="22"/>
       <c r="I16" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B17" s="18"/>
+      <c r="B17" s="26"/>
       <c r="C17" s="2" t="s">
         <v>60</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>43</v>
@@ -1376,19 +1370,19 @@
       <c r="F17" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="G17" s="27"/>
-      <c r="H17" s="28"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="22"/>
       <c r="I17" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B18" s="18"/>
+      <c r="B18" s="26"/>
       <c r="C18" s="2" t="s">
         <v>61</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>44</v>
@@ -1396,19 +1390,19 @@
       <c r="F18" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G18" s="27"/>
-      <c r="H18" s="28"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="22"/>
       <c r="I18" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B19" s="18"/>
+      <c r="B19" s="26"/>
       <c r="C19" s="2" t="s">
         <v>64</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>45</v>
@@ -1416,19 +1410,19 @@
       <c r="F19" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="G19" s="27"/>
-      <c r="H19" s="28"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="22"/>
       <c r="I19" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="19"/>
+      <c r="B20" s="27"/>
       <c r="C20" s="7" t="s">
         <v>65</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>55</v>
@@ -1436,220 +1430,214 @@
       <c r="F20" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="G20" s="29"/>
-      <c r="H20" s="30"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="24"/>
       <c r="I20" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="25" t="s">
         <v>40</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>56</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="G21" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="H21" s="26"/>
+        <v>95</v>
+      </c>
+      <c r="G21" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="H21" s="20"/>
       <c r="I21" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B22" s="18"/>
+      <c r="B22" s="26"/>
       <c r="C22" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>67</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="G22" s="27"/>
-      <c r="H22" s="28"/>
+        <v>94</v>
+      </c>
+      <c r="G22" s="21"/>
+      <c r="H22" s="22"/>
       <c r="I22" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B23" s="19"/>
+      <c r="B23" s="27"/>
       <c r="C23" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E23" s="8" t="s">
         <v>70</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="G23" s="29"/>
-      <c r="H23" s="30"/>
+        <v>99</v>
+      </c>
+      <c r="G23" s="23"/>
+      <c r="H23" s="24"/>
       <c r="I23" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="17" t="s">
         <v>41</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E24" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="F24" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="E24" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="F24" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="G24" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="H24" s="26"/>
+      <c r="G24" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="H24" s="20"/>
       <c r="I24" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B25" s="20"/>
+      <c r="B25" s="17"/>
       <c r="C25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="28"/>
+        <v>109</v>
+      </c>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="22"/>
       <c r="I25" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B26" s="20"/>
+      <c r="B26" s="17"/>
       <c r="C26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="28"/>
+        <v>109</v>
+      </c>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="22"/>
       <c r="I26" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B27" s="20"/>
+      <c r="B27" s="17"/>
       <c r="C27" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="30"/>
+        <v>109</v>
+      </c>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="24"/>
       <c r="I27" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="17" t="s">
         <v>42</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>68</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="G28" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="H28" s="24"/>
+      <c r="G28" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="H28" s="18"/>
       <c r="I28" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B29" s="20"/>
+      <c r="B29" s="17"/>
       <c r="C29" s="2" t="s">
         <v>69</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
       <c r="I29" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B30" s="20"/>
+      <c r="B30" s="17"/>
       <c r="C30" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
+        <v>104</v>
+      </c>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
       <c r="I30" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="G28:H30"/>
-    <mergeCell ref="G4:H13"/>
-    <mergeCell ref="G14:H20"/>
-    <mergeCell ref="G21:H23"/>
-    <mergeCell ref="G24:H27"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="B14:B20"/>
     <mergeCell ref="E3:F3"/>
@@ -1662,6 +1650,12 @@
     <mergeCell ref="F24:F27"/>
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="B9:B13"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="G28:H30"/>
+    <mergeCell ref="G4:H13"/>
+    <mergeCell ref="G14:H20"/>
+    <mergeCell ref="G21:H23"/>
+    <mergeCell ref="G24:H27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -1675,7 +1669,7 @@
   <dimension ref="B3:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:C8"/>
+      <selection activeCell="D8" sqref="D8:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1709,62 +1703,62 @@
     </row>
     <row r="5" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>75</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E5" s="32"/>
       <c r="F5" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>76</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E6" s="32"/>
       <c r="F6" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>77</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E7" s="32"/>
       <c r="F7" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>78</v>
       </c>
       <c r="D8" s="31" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E8" s="32"/>
       <c r="F8" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
@@ -1878,7 +1872,7 @@
   <dimension ref="B3:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="D5" sqref="D5:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1912,22 +1906,25 @@
     </row>
     <row r="5" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="1"/>
+      <c r="D5" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="E5" s="32"/>
       <c r="F5" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1936,10 +1933,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F73E5FFE-3BCB-403B-B7CA-13BCD4A74454}">
-  <dimension ref="B3:F7"/>
+  <dimension ref="B3:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1972,48 +1969,25 @@
     </row>
     <row r="5" spans="2:6" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="E5" s="32"/>
+      <c r="F5" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2" t="s">
-        <v>94</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
